--- a/excel/ตัวอย่างนำเข้าพัสดุ.xlsx
+++ b/excel/ตัวอย่างนำเข้าพัสดุ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Baifern\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4DF553-68AA-4C1F-A5C7-FD17211D58D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FCB9C4-C4CA-4ECD-829C-C833A0222D0B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Microsoft 365</t>
   </si>
@@ -46,9 +46,6 @@
     <t>ชื่อ</t>
   </si>
   <si>
-    <t>User/License</t>
-  </si>
-  <si>
     <t>ระยะเวลา</t>
   </si>
   <si>
@@ -77,6 +74,15 @@
   </si>
   <si>
     <t>ใช้งานภายในสำนักงาน</t>
+  </si>
+  <si>
+    <t>ประเภท</t>
+  </si>
+  <si>
+    <t>โปรแกรม</t>
+  </si>
+  <si>
+    <t>Ai</t>
   </si>
 </sst>
 </file>
@@ -481,7 +487,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,36 +508,36 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>5</v>
+      <c r="B2" t="s">
+        <v>19</v>
       </c>
       <c r="C2">
         <v>365</v>
@@ -549,18 +555,18 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>3</v>
+      <c r="B3" t="s">
+        <v>20</v>
       </c>
       <c r="C3">
         <v>180</v>
@@ -578,7 +584,7 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/excel/ตัวอย่างนำเข้าพัสดุ.xlsx
+++ b/excel/ตัวอย่างนำเข้าพัสดุ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Baifern\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FCB9C4-C4CA-4ECD-829C-C833A0222D0B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5E305C-3DAA-4577-84F4-6DF502DED9DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Microsoft 365</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Ai</t>
+  </si>
+  <si>
+    <t>สถานะ</t>
+  </si>
+  <si>
+    <t>อนุมัติ</t>
   </si>
 </sst>
 </file>
@@ -114,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,13 +143,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -484,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,7 +523,7 @@
     <col min="9" max="9" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -531,8 +551,11 @@
       <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -560,8 +583,11 @@
       <c r="I2" t="s">
         <v>17</v>
       </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
